--- a/TestData/Web_POS/Staging/Billing/mode_of_payment_test_data.xlsx
+++ b/TestData/Web_POS/Staging/Billing/mode_of_payment_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Calc"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indexnine\PycharmProjects\zwing-qa-automation\TestData\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\Zwing QA Automation\zwing-qa-automation\TestData\Web_POS\Staging\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>tax_invoice</t>
+  </si>
+  <si>
+    <t>user_mobile</t>
   </si>
   <si>
     <t>TC_01</t>
@@ -221,25 +224,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
-      <diagonal>
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -252,7 +238,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -529,24 +515,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="A5">
-      <selection activeCell="G2" sqref="G2:H24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="D1">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63281" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="19.29" style="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.29" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.57" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.86" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.71" style="1" customWidth="1"/>
-    <col min="8" max="9" width="19.14" style="1" customWidth="1"/>
-    <col min="10" max="10" width="39.71" style="2" customWidth="1"/>
-    <col min="11" max="12" width="32" style="2" customWidth="1"/>
-    <col min="13" max="13" width="28.71" style="1" customWidth="1"/>
-    <col min="14" max="15" width="10.71" style="1" customWidth="1"/>
-    <col min="16" max="17" width="19.14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.57031" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.71094" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.71094" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.710938" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85547" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.28516" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.57031" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.28516" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.710938" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.710938" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578" style="1" customWidth="1"/>
     <col min="18" max="18" width="36.25" style="2" customWidth="1"/>
     <col min="19" max="20" width="22.5" style="2" customWidth="1"/>
     <col min="21" max="21" width="23.93" style="1" customWidth="1"/>
@@ -608,146 +598,158 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3">
         <v>123456</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3">
         <v>123456</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" s="5">
         <v>45384</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="R2" s="2">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3">
         <v>123456</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3">
         <v>123456</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="5">
         <v>45384</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="R3" s="2">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3">
         <v>123456</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3">
         <v>123456</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" s="5">
         <v>45384</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="R4" s="2">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -757,10 +759,10 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2"/>
       <c r="L5" s="5"/>
@@ -775,10 +777,10 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" s="2"/>
       <c r="L6" s="5"/>
@@ -793,10 +795,10 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7" s="2"/>
       <c r="L7" s="5"/>
@@ -804,154 +806,163 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" ht="25.5">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3">
         <v>123456</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3">
         <v>123456</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" s="5">
         <v>45384</v>
       </c>
       <c r="M8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="2">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="L9" s="5">
         <v>45384</v>
       </c>
       <c r="M9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="2">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="10" ht="25.5">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="L10" s="5">
         <v>45384</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="R10" s="2">
+        <v>7825361498</v>
       </c>
     </row>
     <row r="11" ht="14.25">
@@ -961,10 +972,10 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" s="2"/>
       <c r="L11" s="5"/>
@@ -979,10 +990,10 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I12" s="2"/>
       <c r="L12" s="5"/>
@@ -997,10 +1008,10 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I13" s="2"/>
       <c r="L13" s="5"/>
@@ -1008,543 +1019,570 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" ht="14.25">
+    <row r="14" ht="25.5">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3">
         <v>123456</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="3">
         <v>123456</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L14" s="5">
         <v>45384</v>
       </c>
       <c r="M14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="2">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="15" ht="25.5">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="L15" s="5">
         <v>45384</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="R15" s="6">
+        <v>7418529630</v>
+      </c>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" ht="14.25">
+    <row r="16" ht="51">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3">
         <v>123456</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="3">
         <v>123456</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L16" s="5">
         <v>45384</v>
       </c>
       <c r="M16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="2">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="L17" s="5">
         <v>45384</v>
       </c>
       <c r="M17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R17" s="2">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="18" ht="25.5">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="L18" s="5">
         <v>45384</v>
       </c>
       <c r="M18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="2">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="L19" s="5">
         <v>45384</v>
       </c>
       <c r="M19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R19" s="2">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="20" ht="25.5">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="L20" s="5">
         <v>45384</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="R20" s="2">
+        <v>7418529630</v>
+      </c>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="7"/>
     </row>
-    <row r="21" ht="14.25">
+    <row r="21" ht="25.5">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3">
         <v>123456</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="3">
         <v>123456</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L21" s="5">
         <v>45384</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R21" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="R21" s="2">
+        <v>7418529630</v>
+      </c>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="7"/>
     </row>
-    <row r="22" ht="14.25">
+    <row r="22" ht="25.5">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3">
         <v>123456</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" s="3">
         <v>123456</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L22" s="5">
         <v>45384</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R22" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="R22" s="2">
+        <v>7418529630</v>
+      </c>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="7"/>
     </row>
-    <row r="23" ht="14.25">
+    <row r="23" ht="25.5">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="3">
         <v>123456</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="3">
         <v>123456</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L23" s="5">
         <v>45384</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="R23" s="2">
+        <v>7418529630</v>
+      </c>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="7"/>
     </row>
-    <row r="24" ht="14.25">
+    <row r="24" ht="25.5">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="3">
         <v>123456</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" s="3">
         <v>123456</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L24" s="5">
         <v>45384</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R24" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="R24" s="2">
+        <v>7418529630</v>
+      </c>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="7"/>
